--- a/Copy of TEMPLATE_Track companies and contacts.xlsx
+++ b/Copy of TEMPLATE_Track companies and contacts.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="188">
   <si>
     <t>Company Name</t>
   </si>
@@ -522,38 +522,71 @@
     <t>Follow-up notes</t>
   </si>
   <si>
-    <t>John Smith</t>
-  </si>
-  <si>
-    <t>Acme Corp</t>
+    <t>Ayush Kalla</t>
+  </si>
+  <si>
+    <t>MATRiX ANALYTiCS CORPORATION</t>
   </si>
   <si>
     <t>Data Scientist</t>
   </si>
   <si>
-    <t>john@acme.com</t>
-  </si>
-  <si>
-    <t>111-222-3333</t>
+    <t>akalla@stevens.edu</t>
   </si>
   <si>
     <t>First Follow-up</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Via Jane Doe</t>
-  </si>
-  <si>
-    <t>Great meeting, we discussed XYZ and ABC. John loves snowboarding and has 2 kids. Discussed his team at Acme and promised to connect to Brian.</t>
+    <t>Via Linkedin</t>
+  </si>
+  <si>
+    <t>By linkedin, I requested to have a connection, and he accepted it</t>
+  </si>
+  <si>
+    <t>Vininder Singh Baweja</t>
+  </si>
+  <si>
+    <t>The NPD Group</t>
+  </si>
+  <si>
+    <t>vinindersingh@gmail.com</t>
+  </si>
+  <si>
+    <t>Yimu Xiao</t>
+  </si>
+  <si>
+    <t>Munich Re</t>
+  </si>
+  <si>
+    <t>xiaoym0915@outlook.com</t>
+  </si>
+  <si>
+    <t>Via Meetup</t>
+  </si>
+  <si>
+    <t>Faycal Zouine</t>
+  </si>
+  <si>
+    <t>Media Mix</t>
+  </si>
+  <si>
+    <t>faycal.zouine.usa@gmail.com</t>
+  </si>
+  <si>
+    <t>Vineet Viswakumar</t>
+  </si>
+  <si>
+    <t>Recorem</t>
+  </si>
+  <si>
+    <t>vineetviswakumar@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -593,8 +626,18 @@
       <name val="Arial"/>
     </font>
     <font/>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -613,12 +656,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
-        <bgColor rgb="FFD9D9D9"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -626,7 +663,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -681,13 +718,28 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -5711,62 +5763,280 @@
       <c r="B2" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="21" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="21">
+        <v>6.465778976E9</v>
+      </c>
+      <c r="F2" s="21" t="s">
         <v>172</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="21" t="s">
         <v>173</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="I2" s="23" t="s">
         <v>174</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
+      <c r="U2" s="24"/>
+      <c r="V2" s="24"/>
+      <c r="W2" s="24"/>
+      <c r="X2" s="24"/>
+      <c r="Y2" s="24"/>
+      <c r="Z2" s="24"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="25" t="s">
         <v>175</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="B3" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
-      <c r="X2" s="22"/>
-      <c r="Y2" s="22"/>
-      <c r="Z2" s="22"/>
-    </row>
-    <row r="3">
-      <c r="I3" s="19"/>
+      <c r="C3" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3.15416595E9</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
     </row>
     <row r="4">
-      <c r="I4" s="19"/>
+      <c r="A4" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
     </row>
     <row r="5">
-      <c r="I5" s="19"/>
+      <c r="A5" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="21">
+        <v>8.083088207E9</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
     </row>
     <row r="6">
-      <c r="I6" s="19"/>
+      <c r="A6" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
+      <c r="U6" s="24"/>
+      <c r="V6" s="24"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="24"/>
+      <c r="Z6" s="24"/>
     </row>
     <row r="7">
-      <c r="I7" s="19"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
+      <c r="U7" s="24"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="24"/>
+      <c r="X7" s="24"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="24"/>
     </row>
     <row r="8">
-      <c r="I8" s="19"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
+      <c r="U8" s="24"/>
+      <c r="V8" s="24"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" s="24"/>
     </row>
     <row r="9">
       <c r="I9" s="19"/>
@@ -8732,6 +9002,13 @@
       <formula1>"First email,Second Email,Meeting,Thank-you note,First Follow-up,Multiple Follow-up,PENDING Follow-up"</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="D6"/>
+  </hyperlinks>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>